--- a/biology/Médecine/1227_en_santé_et_médecine/1227_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1227_en_santé_et_médecine/1227_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1227_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1227_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1227 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1227_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1227_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gilbert de Aquila (en)[1] (c. 1180-c. 1250[2]) recommande aux marins d'embarquer des provisions de fruits et de légumes frais pour prévenir le scorbut[3].
-« Première mention des chanoines qui prennent en main la destinée de la léproserie » Saint-Nicolas de Bayeux, constituée jusqu'alors en communauté autonome[4].
-Dans le diocèse de Sens, l'abbaye cistercienne de la Cour-Notre-Dame est unie à la maison-Dieu de Villuis[5], où elle continue d'accueillir des enfants, probablement les fils et les filles des lépreux qu'elle reçoit à son établissement de Michery[6].
-Élisabeth de Hongrie, veuve de Louis IV, landgrave de Thuringe, fonde l'hôpital Sainte-Marie-Madeleine de Gotha[7].
-La léproserie Saint-Léonard (St. Leonard's Leper Hospital) est attestée à Dunfermline en Écosse[8].
-Une léproserie, dite de Courtory, est mentionnée à Coupvray, près Lagny, en Champagne[9].
-Une léproserie, qui subsistera jusqu'en 1494, est attestée à Saint-Soupplets, dans l'actuel département de Seine-et-Marne[10].
-Une léproserie, qui subsistera jusqu'en 1483 au moins, est attestée à Pantin, en Île-de-France, dans l'actuel département de la Seine-Saint-Denis[11],[12].
-1225-1227 : à Toulouse, l'hôpital dit « Novel », du nom de ses architectes, est édifié sur la rive gauche de la Garonne grâce au legs d'Arnaud d'Aragon, prieur de la Daurade ; officiellement fondé en 1257 comme hôpital Saint-Jacques, il sera uni en 1313 à l'hôpital Sainte-Marie de la Daurade, lui-même fondé en 1230, pour former l'hôpital Saint-Jacques du Bout-du-Pont et prendre, en 1554, le nom d'hôtel-Dieu Saint-Jacques[13],[14].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gilbert de Aquila (en) (c. 1180-c. 1250) recommande aux marins d'embarquer des provisions de fruits et de légumes frais pour prévenir le scorbut.
+« Première mention des chanoines qui prennent en main la destinée de la léproserie » Saint-Nicolas de Bayeux, constituée jusqu'alors en communauté autonome.
+Dans le diocèse de Sens, l'abbaye cistercienne de la Cour-Notre-Dame est unie à la maison-Dieu de Villuis, où elle continue d'accueillir des enfants, probablement les fils et les filles des lépreux qu'elle reçoit à son établissement de Michery.
+Élisabeth de Hongrie, veuve de Louis IV, landgrave de Thuringe, fonde l'hôpital Sainte-Marie-Madeleine de Gotha.
+La léproserie Saint-Léonard (St. Leonard's Leper Hospital) est attestée à Dunfermline en Écosse.
+Une léproserie, dite de Courtory, est mentionnée à Coupvray, près Lagny, en Champagne.
+Une léproserie, qui subsistera jusqu'en 1494, est attestée à Saint-Soupplets, dans l'actuel département de Seine-et-Marne.
+Une léproserie, qui subsistera jusqu'en 1483 au moins, est attestée à Pantin, en Île-de-France, dans l'actuel département de la Seine-Saint-Denis,.
+1225-1227 : à Toulouse, l'hôpital dit « Novel », du nom de ses architectes, est édifié sur la rive gauche de la Garonne grâce au legs d'Arnaud d'Aragon, prieur de la Daurade ; officiellement fondé en 1257 comme hôpital Saint-Jacques, il sera uni en 1313 à l'hôpital Sainte-Marie de la Daurade, lui-même fondé en 1230, pour former l'hôpital Saint-Jacques du Bout-du-Pont et prendre, en 1554, le nom d'hôtel-Dieu Saint-Jacques,.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1227_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1227_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Adam de Crémone, Regimen iter agentium vel peregrinantium (« Régime de voyage ou de pèlerinage[15] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adam de Crémone, Regimen iter agentium vel peregrinantium (« Régime de voyage ou de pèlerinage »).</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1227_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1227_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Muhaddabad-Din Yusuf ben Abi Saīd, médecin samaritain en Syrie, a donné ses soins avec succès à la sœur de Saladin ; est devenu vizir de son petit-neveu, al-Amgad Bahramsah, gouverneur de Baalbek[16].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Muhaddabad-Din Yusuf ben Abi Saīd, médecin samaritain en Syrie, a donné ses soins avec succès à la sœur de Saladin ; est devenu vizir de son petit-neveu, al-Amgad Bahramsah, gouverneur de Baalbek.</t>
         </is>
       </c>
     </row>
